--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/m_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/m_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4577,6 +4577,7182 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>De acordo com a classificação dos bens adquiridos para a satisfação das necessidades dos indivíduos, como são definidos os "bens de consumo duráveis"?</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>São aqueles consumidos rapidamente, como alimentos e vestuário.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>São serviços prestados pelo sistema bancário e educacional que não envolvem mercadorias físicas.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>São aqueles cujo consumo ocorre por um longo período, oferecendo serviços contínuos aos proprietários, como uma geladeira ou automóvel.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>São a parcela da renda não consumida destinada ao investimento futuro.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Conforme a definição de **bens de consumo duráveis no item ii** da página 1, estes são aqueles cujo consumo se dá por um período longo.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Segundo a "lei psicológica fundamental" formulada por Keynes em sua Teoria Geral, qual é a relação esperada entre o aumento da renda e o comportamento do consumo?</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>O consumo aumenta na mesma proporção exata do aumento da renda, mantendo a poupança inalterada.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Os indivíduos aumentam o consumo conforme a renda aumenta, mas não na mesma magnitude, pois ocorre também aumento da poupança.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>O aumento da renda leva a uma redução absoluta do consumo em favor de um aumento exponencial da poupança.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>O consumo é independente do nível de renda, sendo determinado exclusivamente pela taxa de juros.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Conforme o texto sobre a **lei psicológica fundamental**, os indivíduos aumentam o consumo conforme a renda aumenta, mas não na mesma magnitude.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Analisando a relação entre níveis de renda e consumo, o texto destaca uma diferença comportamental entre indivíduos de baixa e alta renda. Qual é essa diferença?</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Indivíduos de renda mais alta consomem todo o seu rendimento, enquanto os de baixa renda poupam a maior parte.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>A propensão média a consumir tende a ser crescente conforme aumenta a renda.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Indivíduos de renda mais baixa consomem praticamente todo o rendimento, enquanto os de renda mais alta possuem uma taxa de poupança maior.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Não há diferença no padrão de consumo e poupança entre as classes de renda, sendo a propensão marginal a consumir constante para todos.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Conforme o **quarto parágrafo da página 3**, indivíduos de renda mais baixa consomem praticamente todo o rendimento, enquanto os de renda mais alta poupam parte do que ganham.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>O modelo do ciclo de vida, desenvolvido por Albert Ando e Franco Modigliani, estabelece uma lógica específica para a poupança ao longo da vida do indivíduo. Qual é essa lógica?</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Os indivíduos poupam apenas na velhice para deixar herança aos descendentes.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Os indivíduos mantêm um nível de consumo constante igual à renda corrente em todas as fases da vida.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Os indivíduos poupam quando jovens (ativos) para despoupar na velhice, visando manter o consumo após a queda da renda na aposentadoria.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>A decisão de poupança é aleatória e não depende da idade ou da expectativa de aposentadoria.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Conforme a descrição do **modelo do ciclo de vida na página 4**, os indivíduos poupam quando são jovens para despoupar na velhice.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>De acordo com o modelo da renda permanente de Milton Friedman, como as variações na "renda transitória" afetam as decisões dos agentes?</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Variações na renda transitória alteram imediatamente o padrão de consumo permanente.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Aumentos na renda transitória são integralmente consumidos no presente.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Variações na renda transitória não afetam o consumo, mas alteram apenas a poupança, pois o consumo baseia-se na renda permanente.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>A renda transitória é o principal determinante do consumo de bens duráveis no longo prazo.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da página 5**, variações na renda transitória não afetariam as decisões de consumo, mas alterariam apenas a poupança.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No contexto dos sistemas previdenciários, qual é a diferença fundamental entre o Sistema de Repartição Simples (SRS) e o Regime de Capitalização (RC)?</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No SRS, as contribuições são acumuladas em um fundo individual; no RC, há transferência direta entre ativos e inativos.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No SRS, há uma transferência direta de renda da população ativa para a inativa (compulsoriedade); no RC, as contribuições constituem um fundo individual acumulado.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>O SRS estimula a poupança privada mais do que o RC, pois não garante benefícios definidos.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Ambos os sistemas funcionam sob a lógica de capitalização individual sem interferência do Estado.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Conforme a definição na **página 6**, o SRS baseia-se em transferência direta (ativos para inativos), enquanto no RC as contribuições constituem um fundo individual.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Como a taxa de juros atua sobre a decisão intertemporal de consumo, considerando o "efeito substituição"?</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros barateia o consumo presente, estimulando o endividamento imediato.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>A taxa de juros não afeta a decisão de consumo, pois esta depende apenas da renda corrente.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Quanto maior a taxa de juros, mais caro se torna o consumo presente em relação ao futuro, estimulando a poupança e reduzindo o consumo atual.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>A taxa de juros elevada incentiva a tomada de empréstimos para a compra de bens de consumo leves.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Conforme o texto na **página 7**, elevações na taxa de juros tendem a estimular a poupança e deprimir o consumo (efeito substituição).</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Embora o aumento dos juros geralmente desestimule o consumo, o texto menciona um caso onde o aumento da taxa pode elevar o consumo de determinado grupo. Que situação é essa?</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Quando os agentes são tomadores de empréstimos e veem sua dívida diminuir.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Quando a sociedade é majoritariamente poupadora (detentora de ativos), gerando um "efeito riqueza" positivo devido ao aumento da renda de juros.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Quando o governo reduz os gastos públicos para compensar o aumento dos juros.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Quando a inflação é superior à taxa de juros nominal, incentivando a antecipação de compras.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da página 8**, se a sociedade é poupadora, um aumento da taxa de juros faz a renda aumentar, o que aumenta o consumo (efeito riqueza).</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>O texto relaciona a expansão do crédito ao consumidor com o crescimento econômico brasileiro em um período específico. Qual foi o impacto das reformas de 1964/1966 e do "Milagre Econômico"?</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A restrição ao crédito impediu o crescimento do setor de bens duráveis.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>A criação de mecanismos de financiamento ao consumidor impulsionou a demanda por bens duráveis, setor que cresceu cerca de 24% a.a. no período.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>O crédito foi direcionado exclusivamente para a agricultura, não afetando o consumo urbano.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>As reformas proibiram o financiamento com prazos superiores a dois anos, focando em bens leves.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da página 9**, mecanismos de financiamento instituídos na reforma impulsionaram a demanda por duráveis durante o Milagre.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ao analisar séries históricas mundiais sobre o consumo agregado, qual característica o texto destaca nas considerações finais?</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>O consumo apresenta alta volatilidade, flutuando muito mais que a renda.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>O consumo tende a ser relativamente estável ao longo do tempo, mantendo uma participação constante na renda.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>A participação do consumo na renda tem decrescido drasticamente nas últimas décadas.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>O consumo é imprevisível e não guarda relação com a renda corrente ou permanente.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da página 10**, observa-se uma relativa estabilidade do consumo associado à renda ao longo do tempo.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Com base nos dados da Tabela 6.1 sobre o Consumo final no Brasil (1995-2021), qual a participação aproximada do consumo das famílias no PIB durante a maior parte do período analisado?</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Entre 10% e 20% do PIB.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Entre 30% e 40% do PIB.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Entre 60% e 65% do PIB.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Acima de 80% do PIB.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Conforme a coluna "Famílias – Participação no PIB (%)" da **Tabela 6.1**, os valores oscilam majoritariamente entre 60% e 65%.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No contexto da macroeconomia, o termo "investimento" é frequentemente confundido com aplicações financeiras no senso comum. De acordo com o texto, qual é a definição econômica precisa de investimento?</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Corresponde a qualquer alocação de poupança dos agentes no mercado financeiro que gere juros.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>É a aquisição de bens de capital, máquinas, equipamentos e estoques, visando aumentar a capacidade de produção futura.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Refere-se exclusivamente à compra de ações na Bolsa de Valores no mercado secundário.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>É o acúmulo de moeda estrangeira para proteção contra a inflação.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 1**, o investimento corresponde à aquisição de bens de capital e estoques para aumentar a capacidade produtiva, distinguindo-se da aplicação financeira.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Para a tomada de decisão de investir, é necessário comparar valores monetários em diferentes períodos. Como a taxa de juros afeta o "valor presente" de um fluxo de receitas futuras?</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Elevações na taxa de juros reduzem o valor presente das receitas futuras.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>A taxa de juros não altera o valor presente, pois afeta apenas o valor futuro.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Diminuições na taxa de juros reduzem o valor presente, tornando o investimento menos atrativo.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Elevações na taxa de juros aumentam o valor presente, estimulando o investimento imediato.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Conforme explicado no **Boxe 7.1**, na fórmula P = F / (1 + r), elevações na taxa de juros reduzem o valor presente.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>John Maynard Keynes definiu um conceito fundamental para a análise da decisão de investir, denominado "eficiência marginal do capital" (EMgK). O que esse conceito representa?</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>É a taxa de juros nominal cobrada pelos bancos comerciais em empréstimos de longo prazo.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>É o preço de oferta do investimento somado à depreciação do capital físico.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>É a taxa de desconto que iguala o preço de demanda do investimento (receitas esperadas) ao seu preço de oferta (custo).</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>É a diferença entre a inflação esperada e a taxa de juros real da economia.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Conforme a **definição no primeiro parágrafo da Página 3**, a EMgK é a taxa de desconto que iguala P(dI) a P(oI).</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Segundo a teoria keynesiana, a Eficiência Marginal do Capital (EMgK) tende a diminuir conforme o nível de investimento aumenta. Qual das alternativas abaixo apresenta uma das razões citadas no texto para esse fenômeno?</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>O aumento do investimento reduz a taxa de juros de mercado, desencorajando novos projetos.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>O aumento do investimento pressiona a demanda por máquinas, elevando seu preço de oferta (custo de aquisição).</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>O aumento do investimento gera escassez de mão de obra, impedindo a operação das novas máquinas.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>O governo tende a taxar mais pesadamente os novos investimentos para evitar o superaquecimento da economia.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Conforme o **item ii da Página 4**, o aumento do investimento pressiona a demanda por máquinas, pressionando seu preço para cima (eleva-se o P(oI)), reduzindo a EMgK.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>O texto contrasta o comportamento do investimento no Brasil nas décadas de 1970 e 1980. Qual fator é apontado como determinante para a retração dos investimentos nos anos 80?</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>A estabilidade excessiva da taxa de câmbio, que desestimulou a exportação.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>A falta de mão de obra qualificada para operar a indústria nacional.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>O elevado grau de incerteza sobre o futuro, decorrente da aceleração inflacionária e das constantes mudanças nos planos econômicos.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>A redução da carga tributária, que paradoxalmente diminuiu os investimentos públicos.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 5**, o grau de incerteza elevou-se substancialmente com a aceleração inflacionária e planos frequentes, retraindo o investimento.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A análise tradicional sobre os determinantes do investimento muitas vezes parte de uma premissa simplificadora sobre os mercados financeiros. Qual é essa premissa?</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Supõe-se a existência de mercados financeiros perfeitos, onde a forma de financiamento não afeta as decisões de investimento.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Assume-se que apenas o financiamento interno (lucros retidos) é capaz de sustentar o crescimento de longo prazo.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Considera-se que o racionamento de crédito é a regra, impedindo que a taxa de juros regule o mercado.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pressupõe-se que o Estado deve ser o único financiador de bens de capital.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da seção 7.3**, a análise tradicional supõe mercados perfeitos, onde a forma de financiamento não afetaria as decisões.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No mercado financeiro, a intermediação pode ocorrer de forma direta ou indireta. O que caracteriza o "financiamento indireto"?</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>O poupador repassa recursos diretamente ao investidor, assumindo integralmente o risco do negócio.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Utiliza-se um intermediário (como um banco) que capta recursos do poupador emitindo um título próprio e assume o risco do empréstimo ao tomador.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Ocorre exclusivamente através da emissão de ações na Bolsa de Valores.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>É aquele realizado apenas entre empresas do mesmo grupo econômico, sem passar pelo sistema bancário.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Conforme o **item ii da Página 7**, no financiamento indireto utiliza-se um intermediário que emite título próprio e repassa ao investidor, assumindo o risco.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>James Tobin desenvolveu a teoria do "q de Tobin" para explicar a relação entre o mercado de ações e o investimento. O que ocorre quando o "q" é maior que 1?</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Significa que o valor de mercado da empresa é inferior ao custo de reposição, desestimulando o investimento.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Indica que é mais barato comprar uma empresa pronta do que criar uma nova, reduzindo o investimento agregado.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Significa que o valor de mercado da empresa supera o custo de criar uma nova, estimulando a formação de novas empresas (investimento).</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Indica que a taxa de juros está acima da eficiência marginal do capital, paralisando os investimentos.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 8**, se o q for maior que 1, as bolsas estão em alta, estimulando a formação de novas empresas, ou seja, o investimento.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Uma característica estrutural do sistema financeiro brasileiro dificulta o financiamento de longo prazo por parte dos bancos privados. Qual é essa característica?</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>O predomínio de "bancos universais" que são proibidos por lei de emprestar para a indústria.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>O predomínio de bancos comerciais com passivos de curto prazo (depósitos à vista), o que gera risco de descasamento de prazos se emprestarem a longo prazo.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>A ausência total de investidores institucionais, como fundos de pensão, no mercado brasileiro.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>A exigência de que todos os empréstimos bancários sejam lastreados em ouro.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 9**, o predomínio de bancos comerciais com passivos de curto prazo impede operações de crédito de longo prazo devido ao descasamento.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Diante da dificuldade do sistema financeiro privado nacional em prover financiamento de longo prazo, qual foi a solução historicamente adotada no Brasil para viabilizar grandes investimentos?</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A proibição de investimentos que exigissem maturação superior a dois anos.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>A dependência exclusiva de capital estrangeiro direto para todas as obras de infraestrutura.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>A criação de instituições públicas (como o BNDES) operando com fundos de poupança compulsória (FGTS, PIS-Pasep) para criar um *funding* estável.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>A estatização de todos os bancos comerciais para forçar o empréstimo de longo prazo.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 10**, a maneira encontrada foi a fundação do BNDES e outras instituições públicas operando com fundos de poupança compulsória.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Nas considerações finais do capítulo, destaca-se que o investimento é o principal determinante do produto e das flutuações econômicas. Segundo a visão de Keynes citada no texto, qual é o papel da política econômica diante da instabilidade do investimento?</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>O governo deve se abster de qualquer intervenção, deixando o mercado se autoajustar no longo prazo.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>O governo deve intervir via política econômica para evitar ou contrabalançar a instabilidade e promover um quadro propício ao investimento.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>A política econômica deve focar exclusivamente no controle da inflação, ignorando o nível de investimento.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>O governo deve substituir o investimento privado pelo investimento público de forma integral.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 11**, segundo Keynes, deve-se promover um quadro propício e contrabalançar a instabilidade pela intervenção do governo.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Como a arrecadação de impostos afeta a demanda agregada na economia?</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Aumentando a renda disponível e, consequentemente, o consumo.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Não afeta a demanda agregada, pois é apenas uma transferência de propriedade.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Influenciando a renda disponível dos indivíduos: quanto maiores os impostos, menor a renda disponível e o consumo.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Aumentando a poupança privada sem alterar o consumo imediato.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 1**, quanto maiores os impostos, menor será a renda disponível e, portanto, o consumo.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No contexto das funções do governo e falhas de mercado, o que caracteriza os "bens públicos"?</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>O consumo é rival e excludente, ou seja, quem não paga não consome.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>O consumo gera externalidades negativas para a produção vizinha.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>O consumo é não excludente e não rival, estando disponível a todos independentemente de quantos consumam.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>São bens produzidos exclusivamente por monopólios naturais regulados.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Conforme o **item iii na Página 2**, bens públicos são caracterizados pelo fato de seu consumo ser não excludente e não rival.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Qual é o objetivo principal da "função distributiva" do setor público?</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Garantir a alocação eficiente de recursos para corrigir falhas de mercado.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Arrecadar recursos de determinados grupos ou regiões para transferi-los a outros, direta ou indiretamente.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Maximizar o lucro das empresas estatais.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Estabilizar os preços e garantir o pleno emprego.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **primeiro parágrafo da Página 3**, a função distributiva corresponde à arrecadação de uns para transferir a outros.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Os gastos públicos podem ser classificados em despesas correntes e despesas de capital. O que compõe as "despesas de capital"?</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Gastos com pessoal, encargos sociais e custeio da máquina pública.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Investimentos em instalações e infraestrutura, inversões financeiras e amortização da dívida.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Transferências de renda como benefícios previdenciários e assistenciais.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Pagamento de juros da dívida pública interna.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **segundo parágrafo da Página 4**, as despesas de capital referem-se aos investimentos, inversões financeiras e amortização.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Qual a principal diferença entre impostos diretos e indiretos?</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Impostos diretos incidem sobre o consumo; indiretos incidem sobre a renda.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Impostos diretos são suportados pelo contribuinte (renda/propriedade); indiretos têm o ônus transferido para um terceiro (preço do produto).</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Impostos indiretos são arrecadados apenas pelos municípios.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Impostos diretos não podem ser sonegados, enquanto os indiretos dependem de declaração anual.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **segundo parágrafo da Página 5**, impostos indiretos são aqueles cujo ônus econômico é transferido para um terceiro e incidem sobre o valor das transações.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Quando um sistema tributário é considerado "regressivo"?</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Quando a participação dos impostos na renda dos indivíduos aumenta conforme a renda aumenta.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Quando a participação dos impostos na renda é a mesma para todos os níveis de renda.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Quando a participação dos impostos na renda diminui conforme a renda aumenta (quem ganha menos paga proporcionalmente mais).</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Quando o governo devolve parte dos impostos pagos aos contribuintes de baixa renda.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **terceiro parágrafo da Página 6**, um sistema é regressivo quando a participação dos impostos na renda diminui conforme a renda aumenta.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Como se comportam os impostos do tipo "valor adicionado" (ad valorem) em relação aos ciclos econômicos?</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>São fixos em termos monetários, independentemente da atividade econômica.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>São neutros, não afetando a arrecadação durante expansões ou recessões.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>A arrecadação depende da base sobre a qual incide; se a economia expande, a arrecadação aumenta (são pró-cíclicos).</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>A arrecadação aumenta durante as recessões devido ao aumento das alíquotas automáticas.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 7**, se a economia está em expansão e a base tributável aumenta, aumenta a arrecadação.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>O que distingue as "contribuições" (sociais, econômicas e previdenciárias) dos impostos comuns no sistema brasileiro?</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>As contribuições não são obrigatórias, dependendo da adesão do contribuinte.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>A receita das contribuições deve ser utilizada para uma finalidade específica (ex: seguridade social), diferentemente dos impostos.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>As contribuições são exclusivas da competência estadual.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>As contribuições incidem apenas sobre o lucro líquido, nunca sobre o faturamento.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 8**, a receita das contribuições, diferentemente dos impostos, deve ser utilizada para uma finalidade específica.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>O IPI e o ICMS são impostos do tipo "valor adicionado". Qual é a lógica de recolhimento desse tipo de imposto?</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>O imposto incide sobre o valor total da mercadoria em todas as etapas, gerando efeito cascata.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>O imposto é recolhido apenas sobre o valor agregado em cada etapa, permitindo que o produtor use como crédito o imposto recolhido anteriormente.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>O imposto é cobrado apenas na venda final ao consumidor, isentando a cadeia produtiva.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>O valor do imposto é fixo por unidade produzida, independentemente do preço.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 9**, o imposto é recolhido apenas sobre o valor agregado (o indivíduo tem como crédito o imposto anteriormente recolhido).</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No Brasil, utiliza-se o chamado "cálculo por dentro" para os impostos sobre vendas. O que isso significa?</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>O imposto é calculado sobre o preço de custo da mercadoria.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>O imposto incide sobre o preço final (venda), ou seja, o imposto incide sobre ele mesmo.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>A alíquota nominal é maior que a alíquota efetiva paga pelo consumidor.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>O valor do imposto é deduzido do lucro da empresa antes do cálculo do preço.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Conforme o **Boxe 8.1**, no cálculo por dentro, o imposto é calculado sobre o valor de venda (PV = C / (1-t)).</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>O que motiva a chamada "guerra fiscal" entre os estados brasileiros em relação ao ICMS?</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>A proibição federal de isenções fiscais para indústrias.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>O fato de a maior parte do imposto ficar no estado de origem (produção) e não no destino (consumo), incentivando estados a oferecerem benefícios para atrair empresas.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>A uniformidade das alíquotas em todo o território nacional.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>A cobrança exclusiva do imposto no destino da mercadoria.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 11**, o incentivo decorre do fato de a maior parte do imposto ficar no estado de origem (produção).</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Qual é a função dos Fundos de Participação dos Estados (FPE) e dos Municípios (FPM)?</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Centralizar toda a arrecadação na União para pagamento da dívida externa.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Financiar exclusivamente as capitais e regiões metropolitanas.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Evitar o estrangulamento financeiro dos entes menores, repartindo parte da arrecadação federal (IPI e IR) com base em critérios como renda per capita e população.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Substituir a cobrança de impostos municipais como o ISS e o IPTU.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 12**, foram criados para evitar o estrangulamento, constituídos por parcela do IPI e IR.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Analisando a Tabela 8.4 sobre as fontes de recursos dos estados, qual é a situação dos estados de menor renda (ex: Acre, Amapá, Roraima) em relação às transferências?</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>A arrecadação própria de ICMS é superior às transferências federais.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>As transferências do FPE superam, muitas vezes em larga escala, a arrecadação própria de ICMS.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Eles não recebem transferências do FPE, dependendo apenas do IPVA.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>A relação Transferência/ICMS é inferior a 10%.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Conforme os dados da **Tabela 8.4** (coluna Transf./ICMS &gt; 100% para estes estados) e análise na página anterior, as transferências superam a arrecadação própria.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Por que o alto peso dos impostos indiretos no Brasil introduz "expressiva regressividade" no sistema?</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Porque os impostos indiretos incidem apenas sobre bens de luxo.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Porque, ao estarem embutidos nos preços, indivíduos de rendas diferentes pagam o mesmo valor de imposto ao consumir o mesmo bem, pesando mais para quem ganha menos.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Porque os mais pobres são isentos de impostos sobre consumo.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Porque as alíquotas aumentam conforme a renda do consumidor no momento da compra.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 14**, dois indivíduos com rendas diferentes pagam o mesmo valor, tendo maior peso para o de menor renda.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ao analisar a carga tributária brasileira em comparação internacional (Figura 8.1), qual "anomalia" é destacada?</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>O Brasil possui carga tributária baixa, compatível com países de renda per capita similar.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>O Brasil apresenta uma carga tributária de país desenvolvido (elevada) sem ter o mesmo nível de renda per capita ou retorno em serviços públicos.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>A carga tributária brasileira é inferior à de países como México e Índia.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>O Brasil tributa exclusivamente a renda, ignorando o consumo.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Conforme a análise abaixo da **Figura 8.1**, o Brasil apresenta carga de país desenvolvido sem ter o mesmo nível de renda.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Como é definida a "poupança do governo em conta-corrente"?</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>É a diferença entre a carga tributária líquida e o consumo do governo (gastos correntes).</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>É o resultado do superávit primário somado aos investimentos.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>É a diferença entre a arrecadação total e a dívida pública.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>É o valor arrecadado que excede o teto de gastos.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Conforme a fórmula na **Página 17** (referente ao texto da pág. 16), Poupança do governo = Carga tributária líquida — consumo do governo.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>O que caracteriza uma política fiscal "expansionista" do ponto de vista do resultado orçamentário?</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Quando o governo mantém um superávit elevado para pagar juros.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Quando o déficit público é maior que zero, ou seja, o governo contribui para aumentar a demanda agregada.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Quando o governo reduz os gastos públicos para equilibrar as contas.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Quando a arrecadação de impostos supera largamente as despesas.</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 17**, quando o déficit público for maior que zero, o governo estará realizando uma política fiscal expansionista.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Qual é o objetivo do conceito de Necessidade de Financiamento do Setor Público (NFSP)?</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Medir apenas o déficit da administração direta federal.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Medir a "pressão" de todo o setor público não financeiro (incluindo estatais e governos locais) sobre os recursos financeiros da economia (poupança).</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Calcular o lucro das empresas estatais para distribuição de dividendos.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Determinar o valor exato da sonegação fiscal no país.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 18**, seu objetivo é medir a pressão do setor público sobre os recursos financeiros.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Qual é a relação entre a NFSP conceito nominal (NFSPcn) e a NFSP conceito primário (NFSPcp)?</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>NFSPcp = NFSPcn + Investimentos.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NFSPcp = NFSPcn − juros da dívida pública.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>NFSPcn ignora a inflação, enquanto a NFSPcp a considera.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Não há relação matemática entre os dois conceitos.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Conforme a fórmula na **Página 19**: NFSPcp = NFSPcn − juros da dívida pública.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Para haver estabilidade da dívida pública (relação dívida/PIB) na ausência de superávit primário, qual condição deve ser atendida?</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>A taxa de juros deve ser igual à taxa de crescimento do produto (PIB).</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>A inflação deve ser zero.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>O governo deve vender todas as empresas estatais.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>A dívida externa deve ser maior que a dívida interna.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Conforme o final do **primeiro parágrafo da Página 21**, caso não haja superávit, a estabilidade requer que a taxa de juros se iguale à taxa de crescimento do produto.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Qual a principal diferença entre a Dívida Bruta e a Dívida Líquida do Setor Público?</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>A Dívida Líquida inclui os créditos do setor público (disponibilidades financeiras e reservas internacionais) abatendo o total devido.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>A Dívida Bruta desconta a inflação do período.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>A Dívida Líquida refere-se apenas à dívida externa.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>A Dívida Bruta não inclui o governo federal, apenas estados e municípios.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **segundo parágrafo da Página 22**, a Dívida Líquida inclui os créditos do setor público consolidado.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>De acordo com a equação da dinâmica da dívida apresentada no Boxe 8.2, o que contribui para o aumento da relação dívida/PIB?</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Taxa de crescimento do PIB (q) superior à taxa de juros real (r).</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Déficit primário (dp) e diferença positiva entre a taxa de juros real e o crescimento do PIB (r - q &gt; 0).</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>A existência de superávits primários recorrentes.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>A redução da taxa de juros nominal.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Conforme a equação **b_t - b_{t-1} = (r_t - q_t)b_{t-1} + dp_t no Boxe 8.2**, a dívida cresce com déficits primários e juros altos/crescimento baixo.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No exemplo numérico de estabilização da dívida, o que ocorre se a taxa de juros real for significativamente maior que o crescimento do PIB?</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>O governo pode operar com déficit primário sem aumentar a dívida.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>O governo precisa gerar um superávit primário para estabilizar a relação dívida/PIB.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>A dívida se estabiliza automaticamente.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>O crescimento do PIB torna-se irrelevante.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Conforme o **exemplo de cálculo na Página 25**, com juros de 10% e crescimento de 4%, é necessário um superávit (dp = -3%) para estabilizar.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Diferentemente da política fiscal, que afeta a demanda agregada diretamente via gastos e impostos, como a política monetária influencia o produto da economia?</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Influencia o produto de forma indireta, por meio das intervenções no mercado monetário e financeiro.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Influencia o produto diretamente ao alterar a carga tributária das empresas.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Não influencia o produto, limitando-se apenas ao controle da inflação de custos.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Influencia o produto determinando rigidamente os preços de todos os bens da economia.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 1**, a política monetária influencia o produto de forma indireta, por meio das intervenções no mercado monetário e financeiro.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Qual é o principal obstáculo ao desenvolvimento econômico em um sistema de escambo (sem moeda), superado pela introdução da moeda como meio de troca?</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A impossibilidade de armazenar mercadorias perecíveis.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>A necessidade de dupla coincidência de desejos, que eleva os custos de transação.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>A falta de regulação governamental sobre os preços.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>A inexistência de crédito bancário para financiamento da produção.</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo e terceiro parágrafos da seção 9.1**, sem moeda, exige-se a dupla coincidência de desejos, elevando os custos de transação.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>A moeda desempenha a função de "unidade de conta". Qual é a principal vantagem econômica dessa função?</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Permitir que a moeda seja usada como reserva de valor por tempo indeterminado.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Garantir que o governo possa emitir dívida pública.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Fornecer um denominador comum de valor, reduzindo o número de informações necessárias (custos de transação) para precificar mercadorias.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Impedir a flutuação dos preços relativos na economia.</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 3**, a função de unidade de conta fornece um denominador comum, reduzindo o número de informações necessárias.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Considerando a evolução histórica da moeda, o que caracteriza o "papel-moeda" ou "moeda fiduciária" em oposição à "moeda-papel"?</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>O papel-moeda possui lastro integral em ouro.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>O papel-moeda é emitido por bancos privados, enquanto a moeda-papel é estatal.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>O papel-moeda não possui lastro em mercadoria e sua aceitação decorre de imposição legal e credibilidade, não tendo valor intrínseco.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>O papel-moeda só pode ser utilizado para pagamentos de impostos, não servindo para transações privadas.</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 4**, o papel-moeda não possui lastro e sua aceitação se dá por imposição legal, não possuindo valor intrínseco.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No contexto monetário, como é definido o conceito de "lastro"?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>É o custo de impressão das notas de dinheiro.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>É o ativo ou mercadoria que respalda o valor da moeda, no qual a moeda-papel pode ser convertida (ex: ouro ou reservas internacionais).</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>É a taxa de juros cobrada pelo Banco Central aos bancos comerciais.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>É a quantidade total de crédito disponível na economia.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Conforme a definição no **Boxe da Página 5**, lastro é o ativo ou mercadoria que respalda o valor da moeda.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>De acordo com a Teoria Quantitativa da Moeda (expressa pela equação $V = PY/M$), o que ocorre se a quantidade de moeda (M) aumentar, assumindo que a velocidade de circulação (V) e o produto real (Y) permaneçam constantes no curto prazo?</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>O nível de preços (P) cairá proporcionalmente.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>O nível de preços (P) aumentará.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>A taxa de juros real aumentará para equilibrar o mercado.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Não haverá alteração em nenhuma variável nominal.</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 6** (e continuação na 7), assumindo V e Y constantes, qualquer elevação na quantidade de moeda significaria elevação nos preços.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Segundo Keynes, existe um motivo "especulação" (ou portfólio) para demandar moeda. Qual é a lógica desse comportamento?</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Os agentes retêm moeda para realizar transações diárias imprevistas.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Os agentes guardam moeda esperando o melhor momento para adquirir títulos, evitando perdas de capital quando a taxa de juros está baixa e espera-se que suba (o que derrubaria o preço do título).</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Os agentes demandam moeda exclusivamente para se proteger da inflação.</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Os agentes preferem moeda porque ela paga juros mais altos que os títulos públicos.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 7** e a explicação seguinte sobre o preço dos títulos, os indivíduos guardam moeda para esperar o melhor momento para adquirir títulos.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Qual é a relação teórica entre a demanda por moeda e a taxa de juros nominal, considerando o custo de oportunidade?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Quanto maior a taxa de juros nominal, maior a demanda por moeda, pois a moeda se torna mais valiosa.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>A demanda por moeda é independente da taxa de juros, dependendo apenas da renda.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Quanto maior a taxa de juros nominal, menor será a demanda por moeda, pois o custo de oportunidade de reter moeda (que não rende juros) aumenta.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>A taxa de juros nominal afeta apenas a demanda por títulos, não a demanda por moeda.</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 8**, quanto maior (menor) for a taxa de juros nominal, menor (maior) será a demanda por moeda.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>O que compõe o agregado monetário M1 (meios de pagamentos)?</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Apenas o papel-moeda em poder do público.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Papel-moeda em poder do público mais os depósitos à vista nos bancos comerciais.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Papel-moeda, depósitos à vista e títulos da dívida pública federal.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Depósitos à vista e depósitos de poupança.</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 12**, M1 é a soma do papel-moeda em poder do público mais o total de depósitos à vista.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>O que permite aos bancos comerciais "criar moeda" (moeda escritural) a partir de um depósito inicial?</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A capacidade de imprimir papel-moeda autorizada pelo Banco Central.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>O fato de manterem 100% dos depósitos como reservas em seus cofres.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>A prática de manter apenas uma parcela dos depósitos como reservas (compulsórias e voluntárias) e emprestar o restante, gerando novos depósitos no sistema.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>A venda de títulos públicos diretamente ao Tesouro Nacional.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Conforme a explicação na **Página 13**, os bancos emprestam a parcela dos depósitos que excede as reservas, multiplicando o depósito inicial.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Qual é a definição de Base Monetária (B) apresentada no texto?</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>É a soma de todos os empréstimos realizados pelo sistema bancário.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>É a soma do papel-moeda em poder do público mais as reservas bancárias (compulsórias e voluntárias).</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>É o total de moeda estrangeira em poder do Banco Central.</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>É equivalente ao agregado M4.</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 14**, a base monetária corresponde à soma do papel-moeda em poder do público mais as reservas dos bancos.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>O texto descreve o fenômeno da "desmonetização" em períodos de inflação acelerada. O que isso significa em termos de agregados monetários?</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Um aumento da quantidade de papel-moeda (M1) em relação aos ativos financeiros rendedores de juros (M4).</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>A substituição completa da moeda nacional por moeda estrangeira.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Uma diminuição de M1 (ativos não remunerados) em comparação com outros agregados (M2, M3, M4), pois os agentes fogem da perda do poder de compra.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>A extinção do Banco Central e a privatização da moeda.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 16**, quando a inflação acelera, observa-se diminuição de M1 em comparação com outros agregados (desmonetização).</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Qual das alternativas abaixo apresenta corretamente funções do Banco Central (Bacen) citadas no texto?</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Emissor de moeda, banco dos bancos, banco do Tesouro Nacional e depositário das reservas internacionais.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Coletor de impostos, fiscalizador do comércio exterior e gestor da previdência social.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Banco de investimento privado, emissor de ações e regulador do mercado de trabalho.</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Definidor da política fiscal e aprovador do orçamento da União.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Conforme a lista de **Funções do Bacen na Página 18**, são: emissor de moeda, banco dos bancos, banco do Tesouro e depositário das reservas.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Como a alteração na taxa de reservas compulsórias pelo Banco Central afeta a oferta monetária?</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>O aumento das reservas compulsórias aumenta o multiplicador bancário e a oferta de moeda.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>A diminuição das reservas compulsórias reduz a capacidade de empréstimo dos bancos.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>O aumento da exigência de reservas compulsórias reduz o multiplicador bancário e diminui a oferta monetária.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>As reservas compulsórias não afetam a oferta monetária, apenas a rentabilidade dos bancos.</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 19**, quanto maior a exigência de reservas, menor será o multiplicador e menor será a oferta monetária.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>O que significa a função do Banco Central como "emprestador de última instância"?</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Que o Bacen é o único banco autorizado a emprestar para o governo.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Que o Bacen fornece liquidez aos bancos comerciais em momentos de crise (risco de iliquidez/corrida bancária) para evitar a quebra do sistema financeiro.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Que o Bacen empresta dinheiro diretamente às empresas falidas do setor produtivo.</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Que o Bacen financia o déficit público imprimindo dinheiro sempre que necessário.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 20**, o Bacen pode injetar liquidez como empréstimos de assistência para impedir falência do sistema, assumindo essa função.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Nas operações de *open market* (mercado aberto), qual é o efeito da **venda** de títulos públicos pelo Banco Central?</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Aumenta as reservas bancárias e expande a oferta de moeda.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Não afeta a base monetária, apenas a taxa de câmbio.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Reduz o estoque de depósitos/reservas dos bancos ("enxuga" a liquidez) e diminui a oferta de moeda.</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Provoca uma queda imediata na taxa de juros básica.</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 21**, quando vende títulos, o Bacen promove diminuição dos depósitos/reservas e "enxuga" a quantidade de moeda.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Como a aquisição de reservas internacionais (compra de dólares) pelo Banco Central afeta a base monetária, *ceteris paribus*?</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Reduz a base monetária, pois o Bacen entrega reais ao mercado.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Não afeta a base monetária, pois é uma operação externa.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Amplia a base monetária, pois ao adquirir divisas (ativo), o Bacen emite moeda doméstica (passivo) para pagar por elas.</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Reduz a inflação imediatamente devido à valorização cambial.</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 22**, ao ampliar as reservas internacionais, o Bacen emite moeda doméstica, ampliando seu passivo monetário.</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Qual é a definição conceitual de taxa de juros apresentada no texto?</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>É a taxa que iguala o valor presente de um direito ou obrigação no futuro ao seu valor hoje.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>É o valor total da dívida externa dividido pelo PIB.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>É a soma da inflação com o crescimento do PIB.</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>É o lucro obtido pelas empresas produtivas ao final de um ano.</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Conforme o **final do segundo parágrafo da Página 22 (início da 23)**, a taxa de juros é a taxa que faz com que o valor presente de um direito futuro seja igual a seu valor hoje.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>De acordo com a "teoria dos fundos emprestáveis", o que determina a taxa de juros de equilíbrio?</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A decisão unilateral do Banco Central.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>A interação entre a oferta de fundos (poupança) e a demanda por fundos (investimento) no mercado.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>A quantidade de moeda em circulação exclusivamente.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>O nível de preços da economia.</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 24**, a taxa de juros é determinada pelo equilíbrio do mercado de recursos emprestáveis (oferta e demanda).</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No modelo de preferência pela liquidez (Keynes), o que ocorre com a taxa de juros se houver um excesso de demanda por moeda (dada a oferta monetária fixa)?</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A taxa de juros deve cair para estimular a demanda.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>A taxa de juros deve se elevar para desestimular a posse da moeda (aumentando o custo de oportunidade).</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>A oferta de moeda aumenta automaticamente para atender a demanda.</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>A taxa de juros permanece inalterada.</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 25**, se houver excesso de demanda por moeda, a taxa de juros deverá elevar-se para desestimular a posse da moeda.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pág 26</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>O que diferencia uma "política monetária ativa" de uma "política monetária passiva"?</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Na ativa, o Bacen controla a taxa de câmbio; na passiva, controla a inflação.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Na ativa, o Bacen controla a quantidade de moeda (taxa de juros oscila); na passiva, o Bacen fixa a taxa de juros (oferta de moeda torna-se endógena).</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Na ativa, o Bacen não interfere no mercado; na passiva, intervém diariamente.</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Na ativa, o objetivo é o crescimento; na passiva, é a recessão.</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Conforme a definição na **Página 27 (referente ao texto da 26)**, na ativa o Bacen controla agregados e juros oscilam; na passiva, fixa juros e controla oferta para mantê-los.</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pág 27</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>No Regime de Metas de Inflação, qual é o principal instrumento utilizado pelo Banco Central para fazer a inflação convergir para a meta?</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>O controle direto dos preços dos supermercados.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>A alteração da taxa de câmbio fixa.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>A manipulação da taxa de juros (Regra de Taylor).</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>O aumento da carga tributária.</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 27**, o instrumento utilizado para alcançar a meta é a taxa de juros (referência à Regra de Taylor).</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pág 28</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Qual é a função do Comitê de Política Monetária (Copom) no Brasil?</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Aprovar as contas do governo federal.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Definir a meta de inflação (responsabilidade do CMN).</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Estipular a taxa de juros Selic compatível com o atingimento da meta de inflação estabelecida pelo CMN.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Regular o funcionamento da Bolsa de Valores.</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 28**, o Copom estipula a taxa de juros Selic compatível com o atingimento da meta estabelecida.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Um dos fatores que explica a diferença entre as taxas de juros é o "risco de default". O que isso significa?</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>O risco de a inflação corroer o valor do dinheiro.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>A probabilidade de o tomador dos recursos não honrar o pagamento do empréstimo.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>O risco de o Banco Central aumentar a taxa básica.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>O risco cambial decorrente da desvalorização da moeda.</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Conforme a definição de **Risco de não pagamento na Página 29**, corresponde ao fato de o tomador não poder pagar o empréstimo.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Pág 30</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>O que indica uma "curva de rendimento" (yield curve) com inclinação positiva?</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Que as taxas de juros de curto prazo são maiores que as de longo prazo.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Que quanto maior o prazo de maturidade do título, maior tende a ser a taxa de juros (devido à preferência pela liquidez imediata).</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Que a economia está em recessão profunda.</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Que não há relação entre prazo e taxa de juros.</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 30**, a curva tem inclinação positiva, mostrando que quanto maior o prazo, maior deverá ser a taxa de juros.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pág 31</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Por que o aumento da taxa de juros pode "agravar a seleção adversa" no mercado de crédito?</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Porque atrai apenas tomadores conservadores e seguros.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Porque reduz o lucro dos bancos imediatamente.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Porque tende a atrair tomadores de maior risco (mais ávidos por recursos), que aceitam pagar taxas altas, piorando a qualidade da carteira do banco.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Porque elimina o risco moral das operações.</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Conforme o **item i da Página 31**, o aumento da taxa leva à piora na qualidade dos tomadores (seleção adversa), pois só tomam empréstimos os de maior risco.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pág 32</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>O Brasil possui historicamente spreads bancários elevados. Qual dos fatores abaixo é apontado no texto como uma das causas desse fenômeno?</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>A baixa tributação sobre o setor financeiro.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>A elevada concorrência entre centenas de bancos pequenos.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>A elevada taxa de inadimplência e a forte concentração bancária.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>A ausência de reservas compulsórias.</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 32**, as explicações incluem elevada inadimplência e forte concentração no sistema financeiro.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Pág 33</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Qual é a diferença fundamental entre taxa de juros nominal e taxa de juros real?</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>A taxa nominal desconta a inflação; a real não.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>A taxa nominal é o ganho monetário da aplicação; a taxa real é a taxa nominal descontada a inflação (ganho de poder de compra).</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>A taxa real é sempre maior que a nominal.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>A taxa nominal é usada apenas para empréstimos internacionais.</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Conforme as definições na **Página 33**, a nominal é o ganho monetário e a real é a nominal descontada a inflação.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Pág 34</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Em operações com taxas de juros **pós-fixadas**, como é determinado o rendimento final?</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>A taxa nominal é fixada no início e não muda, independentemente da inflação.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Define-se uma taxa real *ex ante* e acrescenta-se a correção monetária (inflação) ocorrida no período para chegar à taxa nominal final (*ex post*).</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>O rendimento depende exclusivamente da variação cambial.</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>A taxa é definida por sorteio ao final do contrato.</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Conforme o **item ii da Página 34**, nas pós-fixadas define-se a taxa real ex ante e acrescenta-se a correção monetária para determinar a taxa nominal ex post.</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Pág 35</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Por que, segundo o texto, os tomadores de recursos (empresas) tendem a preferir operações **prefixadas**?</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Porque elas permitem apostar na alta da inflação.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Porque necessitam de previsibilidade sobre seus custos financeiros para tomar decisões de investimento.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Porque as taxas prefixadas são sempre menores que as pós-fixadas.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Porque o governo proíbe empresas de usarem taxas pós-fixadas.</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 35**, os tomadores procuram prefixadas por necessitarem de previsões sobre seus custos financeiros.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No contexto da Economia Internacional, como é dividido o estudo das relações econômicas entre países?</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Apenas em questões microeconômicas referentes à formação de preços de commodities.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Em uma parte microeconômica, que estuda por que países comercializam, e uma parte macroeconômica, que analisa taxas de câmbio e balanço de pagamentos.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Exclusivamente na análise de balanços contábeis de empresas multinacionais.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Na análise política das relações diplomáticas e seu impacto nas fronteiras físicas.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Conforme os **segundo e terceiro parágrafos da Página 1**, o ramo divide-se no estudo das razões das transações (micro) e dos impactos macroeconômicos (câmbio, balanço de pagamentos).</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Qual é a principal consequência da introdução do setor externo na análise da oferta e demanda agregada de um país?</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>A oferta agregada passa a ser composta apenas por produtos importados.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>A poupança interna torna-se a única fonte para financiar investimentos.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>A oferta agregada passa a contar com bens estrangeiros e a poupança interna deixa de ser a única fonte de financiamento, podendo-se recorrer à poupança externa.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>O país é obrigado a fechar suas fronteiras para proteger a indústria nacional.</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 2**, com o setor externo, a oferta conta com produtos estrangeiros e a poupança externa pode financiar investimentos.</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Para a elaboração do Balanço de Pagamentos no Brasil, adota-se o conceito de "residência". Quem é considerado "residente" para fins de registro?</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Qualquer pessoa que possua nacionalidade brasileira, independentemente de onde more.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Apenas as empresas estatais e o governo federal.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Os agentes econômicos que possuem o centro de interesse no país, incluindo filiais de empresas estrangeiras instaladas no Brasil.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Turistas estrangeiros em visita ao Brasil.</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 3**, entende-se por residentes os agentes que possuem centro de interesse no país, incluindo filiais de empresas estrangeiras.</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>O que indica um déficit na "Balança de Transações Correntes" de um país?</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Que o país exportou mais do que importou bens e serviços.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Que o país está acumulando reservas internacionais de forma acelerada.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>A necessidade de receber investimentos estrangeiros, contrair empréstimos ou diminuir as reservas nacionais para financiar o excesso de gastos.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Que o governo deve aumentar os impostos internos para cobrir a dívida pública doméstica.</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 4**, se a conta for deficitária, implica necessidade de investimentos estrangeiros, empréstimos ou diminuição de reservas.</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Como uma desvalorização da moeda nacional (taxa de câmbio) tende a afetar o saldo da balança comercial?</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Tende a piorar o saldo, pois encarece as exportações e barateia as importações.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>É indiferente para o saldo comercial, afetando apenas a conta financeira.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Tende a melhorar o saldo, pois aumenta a competitividade dos produtos nacionais (estímulo às exportações) e encarece os produtos estrangeiros (desestímulo às importações).</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Provoca uma imediata redução da renda interna, zerando o déficit comercial.</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Conforme o **item iii na Página 5**, quanto mais desvalorizada a moeda, maior a competitividade e o estímulo às exportações, melhorando o saldo.</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Onde são registrados os juros pagos por empréstimos e financiamentos no Balanço de Pagamentos?</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Na Balança de Serviços, item "Serviços Financeiros".</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Na Conta de Renda Primária.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Na Conta de Renda Secundária.</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Na Balança Comercial.</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Conforme o **final do primeiro parágrafo e o segundo parágrafo da Página 6**, os juros não estão em serviços, mas são registrados na conta de renda primária.</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>O que distingue a "Conta Financeira" da "Conta Capital" no Balanço de Pagamentos?</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>A Conta Financeira registra transferências de patrimônio de migrantes; a Conta Capital registra investimentos em ações.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>A Conta Financeira congrega fluxos de ativos e passivos financeiros (investimento direto, carteira); a Conta Capital foca em transferências patrimoniais e ativos não financeiros não produzidos (marcas/patentes).</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Ambas registram exatamente as mesmas transações, sendo apenas uma questão de nomenclatura antiga vs. nova.</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>A Conta Financeira registra apenas operações do governo, enquanto a Conta Capital registra operações privadas.</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Conforme a descrição dos **itens i e ii na Página 7**, a Conta Capital envolve marcas/patentes e transferências patrimoniais; a Financeira envolve fluxos de ativos/passivos (investimentos).</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Como são classificados os "empréstimos intercompanhias" (créditos concedidos por matrizes a filiais) no Balanço de Pagamentos?</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Como Investimento em Carteira (Renda Fixa).</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Como Investimentos Diretos.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Como Derivativos.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Como Transferências Unilaterais.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 8**, os investimentos diretos dividem-se em participações no capital e empréstimos intercompanhias.</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Qual é a função da conta "Erros e Omissões" no Balanço de Pagamentos?</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Registrar as doações internacionais ilegais.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Cobrir os erros estatísticos e transações não registradas, garantindo a equivalência contábil entre créditos e débitos, já que muitos valores são estimados.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Contabilizar a sonegação fiscal das empresas exportadoras.</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Registrar a depreciação do câmbio ocorrida no ano.</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 9**, esse item entra para cobrir erros estatísticos e transações não registradas, pois nem sempre há equivalência perfeita.</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Com as alterações metodológicas do BPM6 (adotadas a partir de 2015), como são interpretados os sinais na Conta Financeira?</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Sinais positivos representam entrada de dólares e negativos saída de dólares.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sinais negativos representam entrada de dólares (aumento de passivo/dívida) e sinais positivos representam saída de dólares (aumento de ativo/pagamento).</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Não houve alteração nos sinais, apenas na nomenclatura das contas.</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Os sinais dependem exclusivamente da taxa de câmbio vigente no dia.</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Conforme o **item (c) na Página 10**, na Conta Financeira, sinais negativos representam entrada de dólares e sinais positivos saída de dólares.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Observando a evolução das reservas internacionais brasileiras (Figura 10.1 e texto), o que caracterizou o período de 2006 a 2011?</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Uma queda brusca das reservas devido à crise do subprime.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Uma estabilidade em patamar baixo (US$ 35-55 bilhões).</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Um crescimento acelerado das reservas (salto de US$ 90 bi para US$ 350 bi), impulsionado pelo boom das commodities e fluxo de capitais.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>A venda total das reservas para pagar a dívida externa.</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Conforme a descrição do período **2006–2011 na Página 11**, ocorre crescimento acelerado (US$ 90 bi para 310/350 bi) devido a superávits e boom de commodities.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>O que indica o "índice de vulnerabilidade" (Dívida externa total / Exportações) apresentado na Tabela 10.2?</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>A porcentagem do PIB comprometida com importações.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Quantos anos de exportação são necessários para pagar o total da dívida externa.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>A relação entre o lucro das empresas estrangeiras e a dívida pública.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>O grau de abertura da economia para o turismo.</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 12**, o índice mostra quantos anos de exportação são necessários para pagar o total da dívida externa.</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>De acordo com a Tabela 10.3, como se compara o "Grau de abertura" do Brasil com o de economias como Alemanha e Coreia do Sul em 2021?</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>O Brasil é muito mais aberto, com grau de abertura superior a 100%.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>O Brasil apresenta abertura econômica (aprox. 39%) inferior à da Alemanha (aprox. 88%) e da Coreia do Sul (aprox. 80%).</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>O grau de abertura é idêntico para todos os países listados.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>O Brasil não possui grau de abertura mensurável.</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Conforme a **Tabela 10.3 na Página 13**, o grau de abertura do Brasil (39,18%) é inferior ao da Alemanha (88,74%) e Coreia do Sul (80,49%).</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>O que define a "taxa de câmbio" no contexto do comércio internacional?</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>É o imposto cobrado sobre operações financeiras internacionais.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>É a taxa de juros cobrada pelo Banco Central Europeu.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>É o preço de uma moeda relativamente a outra, ou a taxa pela qual duas moedas podem ser trocadas.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>É o saldo da balança comercial dividido pelo PIB.</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Conforme a definição de **Taxa de câmbio no segundo parágrafo da Página 14**, é o valor de uma moeda relativamente à outra.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>No mercado cambial brasileiro, quem atua tipicamente do lado da **oferta** de dólares?</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Importadores brasileiros e turistas brasileiros indo ao exterior.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Exportadores brasileiros e estrangeiros que querem investir no Brasil.</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Apenas o Banco Central.</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Empresas que desejam remeter lucros para o exterior.</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Conforme a lista de agentes no **primeiro parágrafo da Página 15**, oferecem dólares os exportadores e estrangeiros que querem investir no Brasil.</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Qual a definição de "taxa de câmbio real" apresentada no texto?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>É a taxa de câmbio nominal descontada a taxa de juros.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>É a taxa de câmbio nominal deflacionada pela razão entre a inflação doméstica e a inflação externa, usada para verificar competitividade.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>É a taxa de câmbio fixada pelo governo em lei.</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>É o valor da moeda em ouro.</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Conforme a definição de **Taxa de câmbio real na Página 16**, é a taxa nominal deflacionada pela razão entre inflação doméstica e externa.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Como ocorre o ajuste no "regime de taxas de câmbio fixas" quando há excesso de oferta de divisas (dólares) no mercado?</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>A taxa de câmbio cai livremente.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>O governo proíbe exportações para reduzir a entrada de dólares.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>O governo (Banco Central) intervém comprando o excesso de divisas à taxa fixada, aumentando as reservas e a oferta monetária interna.</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>O mercado se ajusta automaticamente sem intervenção governamental.</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Conforme o **item i na Página 17**, se há excesso de oferta, o governo adquire divisas pela taxa fixada, trocando-as por moeda nacional.</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Qual é um dos principais limites para a manutenção de um regime de câmbio fixo em caso de déficits constantes no Balanço de Pagamentos?</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>O excesso de arrecadação tributária.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>O volume de reservas internacionais do país, que são consumidas para cobrir os déficits não financiados.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>A proibição da OMC de fixar câmbio.</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>A falta de papel-moeda nacional para impressão.</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 18**, um dos limites dos déficits é o volume de reservas do país.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>O que caracteriza o sistema de "flutuação suja" (dirty floating)?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>O câmbio é estritamente fixo por lei constitucional.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>O mercado é livre, mas sujeito a intervenções pontuais do Banco Central para diminuir a volatilidade ou direcionar a taxa.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>O Banco Central nunca intervém, independentemente da instabilidade.</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>É um sistema onde apenas o "dinheiro sujo" (ilegal) é transacionado.</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 19**, esse sistema difere do flutuante por estar sujeito a intervenções pontuais do Bacen.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>De acordo com a Lei do Preço Único e o Índice Big Mac, se um produto é homogêneo e livremente comercializado, qual deve ser a relação entre a taxa de câmbio e os preços?</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A taxa de câmbio nominal deve ser igual à relação de preços do mesmo produto nos respectivos países.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>O preço deve ser sempre maior no país mais rico, independente do câmbio.</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>A taxa de câmbio não guarda relação com os preços dos produtos.</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>O produto deve custar o dobro no país importador devido ao frete.</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Conforme o **quarto parágrafo da Página 24**, a taxa de câmbio nominal deve ser igual à relação de preço do mesmo produto expresso na moeda dos países.</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>O que postula a teoria da "Paridade do Poder de Compra" (PPC) sobre a determinação da taxa de câmbio no longo prazo?</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Que a taxa de câmbio varia apenas em função da taxa de juros.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Que a variação da taxa de câmbio nominal reflete a diferença entre a taxa de inflação interna e a taxa de inflação internacional.</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Que o câmbio é determinado pelo estoque de ouro do país.</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Que a taxa de câmbio deve ser fixa para garantir o poder de compra.</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Conforme a definição de **Paridade do Poder de Compra na Página 25**, a variação da taxa nominal = Inflação Interna – Inflação Internacional.</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pág 26</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Na decisão de investimento financeiro internacional (curto prazo), o que o investidor compara ao decidir entre aplicar no Brasil ou nos EUA?</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Apenas a beleza das praias brasileiras.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>O retorno da aplicação no exterior (juros EUA) com o retorno no Brasil (juros BR) descontada a expectativa de desvalorização cambial.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>A taxa de inflação passada dos dois países.</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>O saldo da balança comercial do ano anterior.</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Conforme a fórmula e explicação na **Página 26 e 27**, o investidor compara o retorno lá fora com o retorno no Brasil menos a expectativa de desvalorização.</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Pág 27</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>O que desencadeia um "ataque especulativo" segundo a lógica da arbitragem e expectativas descrita no texto?</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>A desconfiança de que a moeda nacional perderá valor (expectativa de desvalorização), levando à saída massiva de recursos se o juro não compensar esse risco.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>O aumento das exportações do país.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>A decisão do governo de reduzir impostos sobre importação.</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>A estabilidade política absoluta.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Conforme o **penúltimo parágrafo da Página 27**, a desconfiança (expectativa de menor valor) leva à saída de recursos e pressão pela desvalorização (ataque especulativo).</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Pág 28</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Analisando o comportamento histórico da taxa de câmbio no Brasil (Figura 10.2 e texto), o que ocorreu em 1999?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>A taxa de câmbio permaneceu fixa em R$ 1,00.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Houve um salto na taxa de câmbio (desvalorização) devido ao fim da âncora cambial e adoção do câmbio flutuante.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>O real se valorizou fortemente, chegando a valer mais que o dólar.</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>O Brasil adotou o dólar como moeda oficial.</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Conforme a descrição do **período 1999 no resumo da Página 28**, houve forte salto com o fim da âncora cambial.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Qual é o princípio central da teoria das "Vantagens Comparativas" formulada pelos economistas clássicos?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Um país deve produzir tudo o que consome para ser independente.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Cada país deve especializar-se na produção da mercadoria em que é relativamente mais eficiente (menor custo relativo), exportando-a.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Um país só deve exportar se tiver vantagem absoluta (maior eficiência total) em todos os produtos.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>O comércio internacional é prejudicial aos países pobres.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 29**, o princípio sugere especialização na mercadoria em que se é relativamente mais eficiente.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Pág 30</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>No exemplo numérico de David Ricardo (Inglaterra e Portugal), qual é a conclusão sobre os benefícios do comércio?</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Apenas Portugal se beneficia, pois é mais produtivo em tudo.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>A Inglaterra deve produzir vinho, pois gasta mais horas.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Ambos os países se beneficiam ao se especializarem onde têm vantagem comparativa, economizando horas de trabalho (recursos).</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>O comércio é impossível porque a Inglaterra não tem vantagem absoluta.</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 30**, ambos os países sairão beneficiados, economizando horas de trabalho.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Pág 31</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Qual é a crítica central da corrente "estruturalista" (CEPAL/Prebisch) à teoria das vantagens comparativas?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>De que o livre comércio favorece apenas os países com exércitos fortes.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>De que há uma tendência de deterioração dos termos de troca para países produtores de bens primários (demanda cresce menos), prejudicando-os no longo prazo.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>De que a tecnologia dos países subdesenvolvidos é superior à dos desenvolvidos.</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>De que a inflação nos países ricos distorce os preços do vinho.</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo e terceiro parágrafos da Página 31**, argumenta-se a tendência de deterioração dos termos de troca, pois a demanda por primários cresce menos.</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pág 32</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>O que define o padrão de comércio na "Teoria Moderna" (Modelo Heckscher-Ohlin)?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>A diferença climática entre os países.</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>As diferenças na dotação relativa de fatores de produção (abundância de capital vs. trabalho).</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>A intervenção estatal na economia.</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>A preferência dos consumidores por marcas famosas.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Conforme o **último parágrafo da Página 32**, a ideia básica é que os países diferem quanto à dotação relativa de fatores (capital e trabalho).</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Pág 33</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>O que foi o "Paradoxo de Leontieff"?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>A descoberta de que os EUA não realizavam comércio internacional.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>O resultado empírico de que os EUA exportavam bens intensivos em mão de obra, contrariando a previsão de que, sendo ricos em capital, deveriam exportar bens intensivos em capital.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>A teoria de que países pobres exportam tecnologia.</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>A constatação de que o comércio internacional reduz o bem-estar.</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 33**, os EUA tendiam a exportar bens intensivos em mão de obra, apesar de deterem grande estoque de capital.</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pág 34</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>O que caracteriza o "comércio intraindustrial", foco das novas teorias de comércio (Krugman, Linder)?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>A troca de matérias-primas por manufaturados entre países ricos e pobres.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>A troca de produtos razoavelmente parecidos (ex: carros por carros) entre países com igual dotação de recursos (países ricos).</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>O comércio exclusivo de produtos agrícolas.</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>O comércio realizado apenas dentro das fronteiras de um mesmo país.</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 34**, verifica-se comércio intenso entre países com igual dotação e troca de produtos parecidos (intraindustrial).</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Pág 35</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Segundo a teoria do "ciclo do produto" de Raymond Vernon, qual é a trajetória da produção de um bem inovador?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Ele é sempre produzido no país inventor.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Começa em países desenvolvidos (inovação/P&amp;D) e, com a padronização, a produção migra para países menos desenvolvidos (menor custo de mão de obra).</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>O produto nasce em países pobres e é exportado para os ricos.</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>O ciclo do produto não afeta a localização da produção.</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Conforme o **quarto e quinto parágrafos da Página 35**, com a padronização, a produção pode mudar para países menos desenvolvidos.</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Pág 36</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Qual argumento é utilizado para a defesa de medidas protecionistas, como a "defesa da indústria nascente"?</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>De que o mercado é perfeitamente concorrencial e eficiente.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>De que existem falhas de mercado e custos de aprendizado, justificando a proteção temporária até que a indústria nacional ganhe escala e competitividade.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>De que o protecionismo aumenta a inflação e o desemprego imediatamente.</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>De que o consumidor prefere produtos nacionais mais caros.</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 36**, o argumento da indústria nascente baseia-se na existência de custos de aprendizado/externalidades que justificam proteção.</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Como é caracterizada a atuação governamental na economia brasileira durante a fase colonial?</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Era marcada pelo *laissez-faire*, com mínima intervenção da metrópole.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Havia forte presença governamental, exigindo autorização régia para atividades ou sendo administrada diretamente pelo governo.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>O governo atuava apenas na cobrança de impostos, sem interferir na produção.</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>A intervenção restringia-se exclusivamente ao setor financeiro nascente.</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da seção 19.1.1**, a fase colonial foi marcada por forte presença governamental, exigindo autorização régia para atividades.</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Por que, segundo o texto, o rótulo de "liberal" atribuído à República Velha deve ser relativizado?</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Porque o governo estatizou todas as ferrovias logo no início da República.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Porque não havia bancos privados no país naquele período.</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Porque, apesar de serviços públicos serem privados, havia forte intervenção estatal, exemplificada pelas políticas de defesa do café desde 1906.</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Porque a carga tributária era superior a 50% do PIB.</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 2**, a política de defesa do café mostra que o período não foi de pouca intervenção, apesar do rótulo liberal.</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Qual papel fundamental o Banco do Brasil passou a desempenhar de forma crescente durante a República Velha?</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Atuava exclusivamente como banco comercial para o varejo.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Tornou-se autoridade monetária, controlando parte do mercado cambial e instrumentos como o redesconto.</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Foi privatizado para atrair capital estrangeiro.</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Restringiu sua atuação ao financiamento da indústria pesada.</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 3**, o Banco do Brasil passava a se constituir em autoridade monetária, controlando o câmbio e redesconto.</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>No contexto do "Estado regulamentador" pós-1930, qual foi a principal intervenção governamental nas relações entre capital e trabalho?</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>A proibição total dos sindicatos.</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>A criação da Consolidação das Leis do Trabalho (CLT), regulando intensamente o mercado de trabalho.</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>A desregulamentação completa dos salários.</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>A transferência da justiça do trabalho para a esfera privada.</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Conforme o **item ii da Página 4**, destaca-se a criação da CLT como forma de regulação do mercado de trabalho e mediação de conflitos.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>O texto define quatro espaços de atuação do Estado na industrialização. O que caracteriza o "Estado financiador"?</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>A estatização de todos os bancos comerciais privados.</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>A captação de recursos e seu direcionamento para setores de interesse, exemplificada pela criação do BNDE para crédito de longo prazo.</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>A emissão de moeda sem lastro para pagar dívidas externas.</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>A cobrança de impostos sobre grandes fortunas exclusivamente.</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Conforme o **item iv da Página 5**, o Estado financiador amplia o papel do BB e cria o BNDE como instituição de crédito de longo prazo.</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Qual é uma das razões "práticas" citadas para o Estado brasileiro ter assumido a produção de insumos intermediários (como siderurgia)?</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>A proibição constitucional de capital privado nesses setores.</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>O desinteresse ou incapacidade do setor privado (nacional e externo) em realizar investimentos elevados e de longa maturação.</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>A exigência de organismos internacionais como o FMI.</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>A facilidade de importar tecnologia apenas através de estatais.</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 6**, o setor privado não demonstrou interesse ou capacidade de realizar tais investimentos elevados e de longa maturação.</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>O texto menciona uma mudança no sistema financeiro internacional que favoreceu a estatização de serviços públicos. Que mudança foi essa?</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>A proibição de empréstimos para empresas privadas.</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>O fato de que apenas governos podiam dar garantias para empréstimos e acessar "poupanças institucionalizadas" baratas.</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>A extinção do Banco Mundial.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>A queda generalizada das taxas de juros para o setor privado.</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 7**, apenas os governos podiam dar garantias e tinham acesso a poupanças baratas.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>De acordo com a teoria econômica citada, o que define os "bens públicos" que justificam a intervenção estatal?</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>A rivalidade e a excludência no consumo.</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>A produção exclusiva por monopólios naturais.</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>As características de não rivalidade e não excludência no consumo.</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>O alto custo de produção que impede o lucro.</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 8**, bens públicos têm por característica a não rivalidade e a não excludência.</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Como evoluiu o papel do "Estado financiador" durante os governos militares?</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Foi reduzido com a privatização dos bancos estatais.</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Manteve-se estagnado, sem criação de novos mecanismos.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Foi ampliado com a criação do BNH e fundos parafiscais como o FGTS e PIS-Pasep.</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Focou exclusivamente no financiamento externo, abandonando a poupança interna.</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Conforme os **dois últimos parágrafos da Página 9**, houve criação do BNH, FGTS e PIS-Pasep, ampliando o sistema captador.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Nas últimas décadas, houve um desmonte da institucionalidade prévia. Qual é citada como a marca mais evidente da reversão do papel do Estado?</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>O fim do Estado produtor.</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>O fim do Estado financiador.</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>O aumento do Estado regulamentador via CIP.</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>A extinção da Justiça do Trabalho.</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Conforme o **final do último parágrafo da Página 10**, o fim do Estado produtor é a marca mais evidente dessa reversão.</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Dentre as tentativas de racionalização e controle financeiro do setor público mencionadas, qual medida se destaca?</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>A criação de múltiplos orçamentos para dificultar a fiscalização.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>A transferência da dívida pública do Tesouro para o Banco Central.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>A criação da Secretaria de Controle das Empresas Estatais (SEST) e a unificação orçamentária (fim da Conta Movimento).</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>A eliminação da Lei de Diretrizes Orçamentárias.</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Conforme os **segundo e terceiro parágrafos da Página 11** (após os itens), citam-se a SEST, o fim da Conta Movimento e a unificação orçamentária.</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Qual dos itens abaixo é apresentado como uma das razões para a privatização das empresas estatais brasileiras?</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>O excesso de eficiência que prejudicava a concorrência privada.</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>A ineficiência das empresas públicas e a necessidade de gerar receitas para abater a dívida estatal.</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>A necessidade de aumentar o número de funcionários públicos.</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>A proibição internacional de o Estado possuir empresas.</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Conforme os **itens i e iii da Página 12**, citam-se a ineficiência e a necessidade de gerar receitas para abater a dívida.</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Segundo análises sobre a provisão de serviços públicos estatais, qual era o perfil distributivo desses serviços?</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Eram universalizados, atendendo principalmente aos mais pobres.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Eram inexistentes nas áreas urbanas.</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Quem mais se aproveitava dos serviços públicos eram as classes mais ricas da sociedade.</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Havia total equidade na distribuição entre classes.</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 13**, análises demonstram que quem mais se aproveita são as classes mais ricas.</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>De que maneira a política macroeconômica dos anos 1970 e 1980 afetou a saúde financeira das estatais?</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>O governo injetou capital excessivo, gerando superávits.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>As empresas foram obrigadas a se endividar fortemente e tiveram suas tarifas controladas para combater a inflação, destruindo sua capacidade de investimento.</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>As estatais foram proibidas de tomar empréstimos.</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>As tarifas foram liberadas, gerando lucros exorbitantes.</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 14**, as empresas foram obrigadas a se endividar e as tarifas eram controladas para controle inflacionário.</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>O que caracterizou a primeira fase da privatização no Brasil (anos 1980)?</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>A venda das grandes estatais de telecomunicações.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>A "reprivatização", ou seja, a venda de empresas que haviam sido estatizadas por estarem falidas.</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>A venda da Companhia Vale do Rio Doce.</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>A concessão de serviços de energia elétrica.</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Conforme o **item i da Página 15**, a fase foi de "reprivatização", vendendo empresas estatizadas que estavam em falência.</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Qual foi o foco principal da quarta fase da privatização (a partir de 1995)?</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>A venda de empresas siderúrgicas apenas.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>A reprivatização de bancos pequenos.</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>A inclusão de empresas ligadas à concessão de serviços públicos e privatizações estaduais.</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>A estatização de novas empresas.</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Conforme o **item iv da Página 16**, o período inclui empresas de serviços públicos e privatizações estaduais.</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>De acordo com a Tabela 19.1 (Resumo da Privatização), qual segmento foi responsável pelo maior volume de recursos (arrecadação + dívidas)?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Siderurgia.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Reprivatização (1981-1989).</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Telecomunicações.</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Setor Financeiro.</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Conforme a **Tabela 19.1 na Página 17**, o setor de Telecomunicações totalizou US$ 30.918 milhões, o maior valor individualizado.</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Segundo a Figura 19.1 sobre a participação setorial no PND (1990-2005), quais setores lideraram o processo?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Siderurgia e Mineração (ambos com 17%), seguidos por Petróleo e Gás (16%).</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Setor Financeiro (50%) e Portuário (20%).</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Fertilizantes (30%) e Petroquímica (30%).</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Ferroviário (40%) e Elétrico (10%).</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Conforme a tabela de dados da **Figura 19.1 na Página 18**, Siderurgia e Mineração têm 17% cada, e Petróleo e Gás 16%.</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Qual é a avaliação feita no texto sobre o impacto da privatização na dívida pública?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>A privatização zerou a dívida pública brasileira.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Não se pode dizer que reduziu a dívida (objetivo de curto prazo), embora tenha auxiliado no financiamento do déficit.</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>A privatização aumentou a dívida devido aos custos de demissão.</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Todo o valor arrecadado foi usado para investimentos sociais, não para a dívida.</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 19**, não se pode dizer que a privatização tenha reduzido a dívida pública, mas auxiliou no financiamento do déficit.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
